--- a/AAA-Luban-Excel/Datas/item_Weapon.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Weapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21360" windowHeight="8280"/>
+    <workbookView windowWidth="15285" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="78">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,9 @@
     <t>DESCRIBE</t>
   </si>
   <si>
+    <t>prefabName</t>
+  </si>
+  <si>
     <t>maxStackCount</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
     <t>描述</t>
   </si>
   <si>
+    <t>预制体名称</t>
+  </si>
+  <si>
     <t>在背包栏的最大堆叠数量，相当于武器必占一格</t>
   </si>
   <si>
@@ -113,10 +119,13 @@
     <t>像是某种宗教仪式的器具，用途不详，外观不祥。小矩形范围刺击。</t>
   </si>
   <si>
+    <t>Dagger</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>10001</t>
+    <t>900001</t>
   </si>
   <si>
     <t>10</t>
@@ -134,6 +143,9 @@
     <t>原来它是还没断的匕首。中矩形范围刺击。</t>
   </si>
   <si>
+    <t>Sword</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -149,12 +161,18 @@
     <t>因血液而生锈的斑驳，能嗅到曾刻于其上的惨叫。小扇形范围劈砍。</t>
   </si>
   <si>
+    <t>KitchenKnife</t>
+  </si>
+  <si>
     <t>唐刀</t>
   </si>
   <si>
     <t>老旧的唐刀，端庄的外观勉强能在这鬼地方给人一丝心理上的慰藉。中扇形范围劈砍。</t>
   </si>
   <si>
+    <t>TangDao</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -167,6 +185,9 @@
     <t>不仅能救火，还能让怪物们明白你不仅是来灭火的。超大扇形范围劈砍。</t>
   </si>
   <si>
+    <t>FireAxe</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -182,12 +203,18 @@
     <t>即是工具，也是武器，它是最容易使用的钝器代表。小圆形范围概率击晕，概率随角色力量值变化。</t>
   </si>
   <si>
+    <t>HammerS</t>
+  </si>
+  <si>
     <t>大锤</t>
   </si>
   <si>
     <t>它重、它响，它更容易击晕敌人，绝对能让人记住你来过。中圆形范围概率击晕，概率随角色力量值变化。</t>
   </si>
   <si>
+    <t>HammerG</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -197,18 +224,27 @@
     <t>“你可能在球场上安全，但这里不行。”中扇形范围概率击退，概率随角色力量值变化。</t>
   </si>
   <si>
+    <t>Bat</t>
+  </si>
+  <si>
     <t>手枪</t>
   </si>
   <si>
     <t>一点点火力，能让你轻松解决问题，或者至少威胁一下。</t>
   </si>
   <si>
+    <t>Pistol</t>
+  </si>
+  <si>
     <t>霰弹枪</t>
   </si>
   <si>
     <t>扇形设计，且距离越近伤害越高，在印象里是匪徒的武器。</t>
   </si>
   <si>
+    <t>Shotgun</t>
+  </si>
+  <si>
     <t>0.4</t>
   </si>
   <si>
@@ -216,6 +252,9 @@
   </si>
   <si>
     <t>这是你与易燃物交流的唯一渠道，使用时还可以微微照亮四周。</t>
+  </si>
+  <si>
+    <t>Lighter</t>
   </si>
   <si>
     <t>30</t>
@@ -1174,24 +1213,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="104.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.4" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1333333333333" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="16" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.4" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.4" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1333333333333" style="2" customWidth="1"/>
+    <col min="9" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="16" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1207,10 +1247,10 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1222,417 +1262,462 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" ht="84" customHeight="1" spans="1:10">
+    <row r="4" ht="84" customHeight="1" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="J4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:11">
       <c r="B5" s="1">
         <v>260001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:11">
       <c r="B6" s="1">
         <v>260002</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:11">
       <c r="B7" s="1">
         <v>260003</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:11">
       <c r="B8" s="1">
         <v>260004</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:11">
       <c r="B9" s="1">
         <v>260005</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:11">
       <c r="B10" s="1">
         <v>260006</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:11">
       <c r="B11" s="1">
         <v>260007</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>53</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:11">
       <c r="B12" s="1">
         <v>260008</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:11">
       <c r="B13" s="1">
         <v>260009</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="1">
+        <v>67</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="G13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="2">
         <v>5000</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:11">
       <c r="B14" s="1">
         <v>260010</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="1">
+        <v>70</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="G14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="2">
         <v>5000</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="I14" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:11">
       <c r="B15" s="1">
         <v>260011</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="2">
+        <v>77</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="2">
         <v>0.5</v>
       </c>
     </row>

--- a/AAA-Luban-Excel/Datas/item_Weapon.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D22743-E8CE-42FF-A49B-31D2FF664C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA554E43-4C20-4AA9-A7AA-84A378CEE395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="885" windowWidth="23685" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="1365" windowWidth="23685" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="90">
   <si>
     <t>##var</t>
   </si>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t>IconName</t>
-  </si>
-  <si>
-    <t>String</t>
   </si>
   <si>
     <t>Weapon_Dagger</t>
@@ -626,7 +623,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -715,7 +712,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -800,7 +797,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>30</v>
@@ -821,7 +818,7 @@
         <v>34</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R5" s="1"/>
     </row>
@@ -836,7 +833,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>30</v>
@@ -857,7 +854,7 @@
         <v>39</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R6" s="1"/>
     </row>
@@ -872,7 +869,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>30</v>
@@ -893,7 +890,7 @@
         <v>34</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R7" s="1"/>
     </row>
@@ -908,7 +905,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>30</v>
@@ -929,7 +926,7 @@
         <v>39</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R8" s="1"/>
     </row>
@@ -944,7 +941,7 @@
         <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>30</v>
@@ -965,7 +962,7 @@
         <v>50</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R9" s="1"/>
     </row>
@@ -980,7 +977,7 @@
         <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>30</v>
@@ -1001,7 +998,7 @@
         <v>39</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R10" s="1"/>
     </row>
@@ -1016,7 +1013,7 @@
         <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>30</v>
@@ -1037,7 +1034,7 @@
         <v>50</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R11" s="1"/>
     </row>
@@ -1052,7 +1049,7 @@
         <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>30</v>
@@ -1073,7 +1070,7 @@
         <v>39</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R12" s="1"/>
     </row>
@@ -1088,7 +1085,7 @@
         <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1109,7 +1106,7 @@
         <v>34</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R13" s="1"/>
     </row>
@@ -1124,7 +1121,7 @@
         <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -1145,7 +1142,7 @@
         <v>62</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R14" s="1"/>
     </row>
@@ -1160,7 +1157,7 @@
         <v>64</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>30</v>
@@ -1181,7 +1178,7 @@
         <v>0.5</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R15" s="1"/>
     </row>

--- a/AAA-Luban-Excel/Datas/item_Weapon.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA554E43-4C20-4AA9-A7AA-84A378CEE395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2A0678-D6EC-42B1-942C-8CA908424E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="975" yWindow="1365" windowWidth="23685" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1124,7 +1124,7 @@
         <v>77</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>31</v>

--- a/AAA-Luban-Excel/Datas/item_Weapon.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2A0678-D6EC-42B1-942C-8CA908424E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF74655-06E9-498D-9A1C-5EE5027019E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="1365" windowWidth="23685" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="89">
   <si>
     <t>##var</t>
   </si>
@@ -34,9 +34,6 @@
     <t>DESCRIBE</t>
   </si>
   <si>
-    <t>prefabName</t>
-  </si>
-  <si>
     <t>maxStackCount</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>描述</t>
   </si>
   <si>
-    <t>预制体名称</t>
-  </si>
-  <si>
     <t>在背包栏的最大堆叠数量，相当于武器必占一格</t>
   </si>
   <si>
@@ -226,39 +220,6 @@
     <t>IconName</t>
   </si>
   <si>
-    <t>Weapon_Dagger</t>
-  </si>
-  <si>
-    <t>Weapon_Sword</t>
-  </si>
-  <si>
-    <t>Weapon_KitchenKnife</t>
-  </si>
-  <si>
-    <t>Weapon_TangDao</t>
-  </si>
-  <si>
-    <t>Weapon_FireAxe</t>
-  </si>
-  <si>
-    <t>Weapon_HammerS</t>
-  </si>
-  <si>
-    <t>Weapon_HammerG</t>
-  </si>
-  <si>
-    <t>Weapon_Bat</t>
-  </si>
-  <si>
-    <t>Weapon_Pistol</t>
-  </si>
-  <si>
-    <t>Weapon_Shotgun</t>
-  </si>
-  <si>
-    <t>Weapon_Lighter</t>
-  </si>
-  <si>
     <t>Icon_Weapon_Dagger</t>
   </si>
   <si>
@@ -290,6 +251,42 @@
   </si>
   <si>
     <t>Icon_Weapon_Lighter</t>
+  </si>
+  <si>
+    <t>SpriteName</t>
+  </si>
+  <si>
+    <t>Sprite_Weapon_Dagger</t>
+  </si>
+  <si>
+    <t>Sprite_Weapon_Sword</t>
+  </si>
+  <si>
+    <t>Sprite_Weapon_KitchenKnife</t>
+  </si>
+  <si>
+    <t>Sprite_Weapon_TangDao</t>
+  </si>
+  <si>
+    <t>Sprite_Weapon_FireAxe</t>
+  </si>
+  <si>
+    <t>Sprite_Weapon_HammerS</t>
+  </si>
+  <si>
+    <t>Sprite_Weapon_HammerG</t>
+  </si>
+  <si>
+    <t>Sprite_Weapon_Bat</t>
+  </si>
+  <si>
+    <t>Sprite_Weapon_Pistol</t>
+  </si>
+  <si>
+    <t>Sprite_Weapon_Shotgun</t>
+  </si>
+  <si>
+    <t>Sprite_Weapon_Lighter</t>
   </si>
 </sst>
 </file>
@@ -620,26 +617,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="104.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="16" style="2" customWidth="1"/>
-    <col min="12" max="12" width="39.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="16" style="2" customWidth="1"/>
+    <col min="11" max="11" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -655,10 +651,10 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -671,516 +667,513 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="84" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="84" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+    </row>
+    <row r="5" spans="1:17">
       <c r="B5" s="1">
         <v>260001</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18">
+        <v>78</v>
+      </c>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="B6" s="1">
         <v>260002</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="B7" s="1">
         <v>260003</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="B8" s="1">
         <v>260004</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="J8" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="B9" s="1">
         <v>260005</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="K9" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="B10" s="1">
         <v>260006</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" ht="30">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" ht="30">
       <c r="B11" s="1">
         <v>260007</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="K11" s="2" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18">
+        <v>84</v>
+      </c>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="B12" s="1">
         <v>260008</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="B13" s="1">
         <v>260009</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="1">
+        <v>57</v>
+      </c>
+      <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="F13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="2">
         <v>5000</v>
       </c>
+      <c r="H13" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="I13" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18">
+        <v>86</v>
+      </c>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="B14" s="1">
         <v>260010</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="1">
-        <v>9</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="2">
-        <v>5000</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="K14" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18">
+        <v>87</v>
+      </c>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="B15" s="1">
         <v>260011</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="I15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="2">
+        <v>64</v>
+      </c>
+      <c r="J15" s="2">
         <v>0.5</v>
       </c>
+      <c r="K15" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="L15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R15" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="Q15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAA-Luban-Excel/Datas/item_Weapon.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF74655-06E9-498D-9A1C-5EE5027019E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E4279B-3175-4F72-9961-37EFD27B9020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="91">
   <si>
     <t>##var</t>
   </si>
@@ -220,73 +220,79 @@
     <t>IconName</t>
   </si>
   <si>
-    <t>Icon_Weapon_Dagger</t>
-  </si>
-  <si>
-    <t>Icon_Weapon_Sword</t>
-  </si>
-  <si>
-    <t>Icon_Weapon_KitchenKnife</t>
-  </si>
-  <si>
-    <t>Icon_Weapon_TangDao</t>
-  </si>
-  <si>
-    <t>Icon_Weapon_FireAxe</t>
-  </si>
-  <si>
-    <t>Icon_Weapon_HammerS</t>
-  </si>
-  <si>
-    <t>Icon_Weapon_HammerG</t>
-  </si>
-  <si>
-    <t>Icon_Weapon_Bat</t>
-  </si>
-  <si>
-    <t>Icon_Weapon_Pistol</t>
-  </si>
-  <si>
-    <t>Icon_Weapon_Shotgun</t>
-  </si>
-  <si>
-    <t>Icon_Weapon_Lighter</t>
-  </si>
-  <si>
     <t>SpriteName</t>
   </si>
   <si>
-    <t>Sprite_Weapon_Dagger</t>
-  </si>
-  <si>
-    <t>Sprite_Weapon_Sword</t>
-  </si>
-  <si>
-    <t>Sprite_Weapon_KitchenKnife</t>
-  </si>
-  <si>
-    <t>Sprite_Weapon_TangDao</t>
-  </si>
-  <si>
-    <t>Sprite_Weapon_FireAxe</t>
-  </si>
-  <si>
-    <t>Sprite_Weapon_HammerS</t>
-  </si>
-  <si>
-    <t>Sprite_Weapon_HammerG</t>
-  </si>
-  <si>
-    <t>Sprite_Weapon_Bat</t>
-  </si>
-  <si>
-    <t>Sprite_Weapon_Pistol</t>
-  </si>
-  <si>
-    <t>Sprite_Weapon_Shotgun</t>
-  </si>
-  <si>
-    <t>Sprite_Weapon_Lighter</t>
+    <t>Icon_Item_Weapon_Dagger</t>
+  </si>
+  <si>
+    <t>Icon_Item_Weapon_Sword</t>
+  </si>
+  <si>
+    <t>Icon_Item_Weapon_KitchenKnife</t>
+  </si>
+  <si>
+    <t>Icon_Item_Weapon_TangDao</t>
+  </si>
+  <si>
+    <t>Icon_Item_Weapon_FireAxe</t>
+  </si>
+  <si>
+    <t>Icon_Item_Weapon_HammerS</t>
+  </si>
+  <si>
+    <t>Icon_Item_Weapon_HammerG</t>
+  </si>
+  <si>
+    <t>Icon_Item_Weapon_Bat</t>
+  </si>
+  <si>
+    <t>Icon_Item_Weapon_Pistol</t>
+  </si>
+  <si>
+    <t>Icon_Item_Weapon_Shotgun</t>
+  </si>
+  <si>
+    <t>Icon_Item_Weapon_Lighter</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Weapon_Dagger</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Weapon_Sword</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Weapon_KitchenKnife</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Weapon_TangDao</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Weapon_FireAxe</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Weapon_HammerS</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Weapon_HammerG</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Weapon_Bat</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Weapon_Pistol</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Weapon_Shotgun</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Weapon_Lighter</t>
+  </si>
+  <si>
+    <t>PrefabName</t>
+  </si>
+  <si>
+    <t>P_Item_Weapon</t>
   </si>
 </sst>
 </file>
@@ -619,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -632,7 +638,11 @@
     <col min="7" max="7" width="19.140625" style="2" customWidth="1"/>
     <col min="8" max="9" width="9" style="2"/>
     <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="11" width="39.5703125" customWidth="1"/>
+    <col min="11" max="11" width="48.28515625" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -670,7 +680,10 @@
         <v>65</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -710,6 +723,9 @@
       <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="M2" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
@@ -746,6 +762,9 @@
       <c r="L3" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="M3" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:17" ht="84" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -807,13 +826,16 @@
       <c r="J5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>66</v>
+      <c r="K5" t="s">
+        <v>67</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Q5" s="1"/>
+      <c r="M5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17">
       <c r="B6" s="1">
@@ -843,13 +865,16 @@
       <c r="J6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>67</v>
+      <c r="K6" t="s">
+        <v>68</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q6" s="1"/>
+      <c r="M6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17">
       <c r="B7" s="1">
@@ -879,13 +904,16 @@
       <c r="J7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>68</v>
+      <c r="K7" t="s">
+        <v>69</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="1"/>
+      <c r="M7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17">
       <c r="B8" s="1">
@@ -915,13 +943,16 @@
       <c r="J8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>69</v>
+      <c r="K8" t="s">
+        <v>70</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q8" s="1"/>
+      <c r="M8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17">
       <c r="B9" s="1">
@@ -951,13 +982,16 @@
       <c r="J9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>70</v>
+      <c r="K9" t="s">
+        <v>71</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Q9" s="1"/>
+      <c r="M9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17">
       <c r="B10" s="1">
@@ -987,13 +1021,16 @@
       <c r="J10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>71</v>
+      <c r="K10" t="s">
+        <v>72</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Q10" s="1"/>
+      <c r="M10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" ht="30">
       <c r="B11" s="1">
@@ -1023,13 +1060,16 @@
       <c r="J11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>72</v>
+      <c r="K11" t="s">
+        <v>73</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Q11" s="1"/>
+      <c r="M11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17">
       <c r="B12" s="1">
@@ -1059,13 +1099,16 @@
       <c r="J12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>73</v>
+      <c r="K12" t="s">
+        <v>74</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Q12" s="1"/>
+      <c r="M12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17">
       <c r="B13" s="1">
@@ -1095,13 +1138,16 @@
       <c r="J13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>74</v>
+      <c r="K13" t="s">
+        <v>75</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="Q13" s="1"/>
+      <c r="M13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17">
       <c r="B14" s="1">
@@ -1131,13 +1177,16 @@
       <c r="J14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>75</v>
+      <c r="K14" t="s">
+        <v>76</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="Q14" s="1"/>
+      <c r="M14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17">
       <c r="B15" s="1">
@@ -1167,13 +1216,16 @@
       <c r="J15" s="2">
         <v>0.5</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>76</v>
+      <c r="K15" t="s">
+        <v>77</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q15" s="1"/>
+      <c r="M15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAA-Luban-Excel/Datas/item_Weapon.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E4279B-3175-4F72-9961-37EFD27B9020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDD43B4-243B-4EE4-8205-8CFF213A9F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="840" windowWidth="27570" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="93">
   <si>
     <t>##var</t>
   </si>
@@ -293,6 +293,12 @@
   </si>
   <si>
     <t>P_Item_Weapon</t>
+  </si>
+  <si>
+    <t>WeaponType</t>
+  </si>
+  <si>
+    <t>0表示近战，1表示远程</t>
   </si>
 </sst>
 </file>
@@ -625,13 +631,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
+    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
     <col min="4" max="4" width="104.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
@@ -639,8 +647,9 @@
     <col min="8" max="9" width="9" style="2"/>
     <col min="10" max="10" width="16" style="2" customWidth="1"/>
     <col min="11" max="11" width="48.28515625" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" customWidth="1"/>
+    <col min="12" max="12" width="43.7109375" customWidth="1"/>
     <col min="13" max="13" width="21.42578125" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" customWidth="1"/>
     <col min="18" max="18" width="16.140625" customWidth="1"/>
     <col min="19" max="19" width="14.85546875" customWidth="1"/>
   </cols>
@@ -685,6 +694,9 @@
       <c r="M1" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
@@ -726,6 +738,9 @@
       <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="N2" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
@@ -765,6 +780,9 @@
       <c r="M3" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="N3" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:17" ht="84" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -797,6 +815,9 @@
       <c r="J4" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="N4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
       <c r="B5" s="1">
@@ -835,6 +856,9 @@
       <c r="M5" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17">
@@ -874,6 +898,9 @@
       <c r="M6" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17">
@@ -913,6 +940,9 @@
       <c r="M7" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17">
@@ -952,6 +982,9 @@
       <c r="M8" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17">
@@ -991,6 +1024,9 @@
       <c r="M9" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17">
@@ -1030,6 +1066,9 @@
       <c r="M10" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" ht="30">
@@ -1069,6 +1108,9 @@
       <c r="M11" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17">
@@ -1108,6 +1150,9 @@
       <c r="M12" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17">
@@ -1147,6 +1192,9 @@
       <c r="M13" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17">
@@ -1186,6 +1234,9 @@
       <c r="M14" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17">
@@ -1224,6 +1275,9 @@
       </c>
       <c r="M15" s="2" t="s">
         <v>90</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
       </c>
       <c r="Q15" s="2"/>
     </row>

--- a/AAA-Luban-Excel/Datas/item_Weapon.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Weapon.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDD43B4-243B-4EE4-8205-8CFF213A9F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="840" windowWidth="27570" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="13545" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,6 +59,18 @@
     <t>AttackCD</t>
   </si>
   <si>
+    <t>IconName</t>
+  </si>
+  <si>
+    <t>SpriteName</t>
+  </si>
+  <si>
+    <t>PrefabName</t>
+  </si>
+  <si>
+    <t>WeaponType</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -73,7 +92,9 @@
     <t>##</t>
   </si>
   <si>
-    <t>序号</t>
+    <t>序号
+近战：260001-264999
+远程：265000-269999</t>
   </si>
   <si>
     <t>名称</t>
@@ -100,6 +121,9 @@
     <t>最小攻击间隔</t>
   </si>
   <si>
+    <t>0表示近战，1表示远程</t>
+  </si>
+  <si>
     <t>匕首</t>
   </si>
   <si>
@@ -121,6 +145,15 @@
     <t>0.2</t>
   </si>
   <si>
+    <t>Icon_Item_Weapon_Dagger</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Weapon_Dagger</t>
+  </si>
+  <si>
+    <t>P_Item_Weapon</t>
+  </si>
+  <si>
     <t>刺剑</t>
   </si>
   <si>
@@ -136,12 +169,24 @@
     <t>0.3</t>
   </si>
   <si>
+    <t>Icon_Item_Weapon_Sword</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Weapon_Sword</t>
+  </si>
+  <si>
     <t>菜刀</t>
   </si>
   <si>
     <t>因血液而生锈的斑驳，能嗅到曾刻于其上的惨叫。小扇形范围劈砍。</t>
   </si>
   <si>
+    <t>Icon_Item_Weapon_KitchenKnife</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Weapon_KitchenKnife</t>
+  </si>
+  <si>
     <t>唐刀</t>
   </si>
   <si>
@@ -154,6 +199,12 @@
     <t>16</t>
   </si>
   <si>
+    <t>Icon_Item_Weapon_TangDao</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Weapon_TangDao</t>
+  </si>
+  <si>
     <t>消防斧</t>
   </si>
   <si>
@@ -169,12 +220,24 @@
     <t>0.5</t>
   </si>
   <si>
+    <t>Icon_Item_Weapon_FireAxe</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Weapon_FireAxe</t>
+  </si>
+  <si>
     <t>榔头</t>
   </si>
   <si>
     <t>即是工具，也是武器，它是最容易使用的钝器代表。小圆形范围概率击晕，概率随角色力量值变化。</t>
   </si>
   <si>
+    <t>Icon_Item_Weapon_HammerS</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Weapon_HammerS</t>
+  </si>
+  <si>
     <t>大锤</t>
   </si>
   <si>
@@ -184,18 +247,36 @@
     <t>24</t>
   </si>
   <si>
+    <t>Icon_Item_Weapon_HammerG</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Weapon_HammerG</t>
+  </si>
+  <si>
     <t>棒球棍</t>
   </si>
   <si>
     <t>“你可能在球场上安全，但这里不行。”中扇形范围概率击退，概率随角色力量值变化。</t>
   </si>
   <si>
+    <t>Icon_Item_Weapon_Bat</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Weapon_Bat</t>
+  </si>
+  <si>
     <t>手枪</t>
   </si>
   <si>
     <t>一点点火力，能让你轻松解决问题，或者至少威胁一下。</t>
   </si>
   <si>
+    <t>Icon_Item_Weapon_Pistol</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Weapon_Pistol</t>
+  </si>
+  <si>
     <t>霰弹枪</t>
   </si>
   <si>
@@ -205,6 +286,12 @@
     <t>0.4</t>
   </si>
   <si>
+    <t>Icon_Item_Weapon_Shotgun</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Weapon_Shotgun</t>
+  </si>
+  <si>
     <t>打火机</t>
   </si>
   <si>
@@ -217,119 +304,377 @@
     <t>0</t>
   </si>
   <si>
-    <t>IconName</t>
-  </si>
-  <si>
-    <t>SpriteName</t>
-  </si>
-  <si>
-    <t>Icon_Item_Weapon_Dagger</t>
-  </si>
-  <si>
-    <t>Icon_Item_Weapon_Sword</t>
-  </si>
-  <si>
-    <t>Icon_Item_Weapon_KitchenKnife</t>
-  </si>
-  <si>
-    <t>Icon_Item_Weapon_TangDao</t>
-  </si>
-  <si>
-    <t>Icon_Item_Weapon_FireAxe</t>
-  </si>
-  <si>
-    <t>Icon_Item_Weapon_HammerS</t>
-  </si>
-  <si>
-    <t>Icon_Item_Weapon_HammerG</t>
-  </si>
-  <si>
-    <t>Icon_Item_Weapon_Bat</t>
-  </si>
-  <si>
-    <t>Icon_Item_Weapon_Pistol</t>
-  </si>
-  <si>
-    <t>Icon_Item_Weapon_Shotgun</t>
-  </si>
-  <si>
     <t>Icon_Item_Weapon_Lighter</t>
   </si>
   <si>
-    <t>Sprite_Item_Weapon_Dagger</t>
-  </si>
-  <si>
-    <t>Sprite_Item_Weapon_Sword</t>
-  </si>
-  <si>
-    <t>Sprite_Item_Weapon_KitchenKnife</t>
-  </si>
-  <si>
-    <t>Sprite_Item_Weapon_TangDao</t>
-  </si>
-  <si>
-    <t>Sprite_Item_Weapon_FireAxe</t>
-  </si>
-  <si>
-    <t>Sprite_Item_Weapon_HammerS</t>
-  </si>
-  <si>
-    <t>Sprite_Item_Weapon_HammerG</t>
-  </si>
-  <si>
-    <t>Sprite_Item_Weapon_Bat</t>
-  </si>
-  <si>
-    <t>Sprite_Item_Weapon_Pistol</t>
-  </si>
-  <si>
-    <t>Sprite_Item_Weapon_Shotgun</t>
-  </si>
-  <si>
     <t>Sprite_Item_Weapon_Lighter</t>
-  </si>
-  <si>
-    <t>PrefabName</t>
-  </si>
-  <si>
-    <t>P_Item_Weapon</t>
-  </si>
-  <si>
-    <t>WeaponType</t>
-  </si>
-  <si>
-    <t>0表示近战，1表示远程</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -337,9 +682,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -363,17 +950,61 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -623,38 +1254,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="104.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="34.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="104.566666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.425" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.425" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1416666666667" style="2" customWidth="1"/>
     <col min="8" max="9" width="9" style="2"/>
     <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="11" width="48.28515625" customWidth="1"/>
-    <col min="12" max="12" width="43.7109375" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" customWidth="1"/>
-    <col min="14" max="14" width="25.7109375" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="48.2833333333333" customWidth="1"/>
+    <col min="12" max="12" width="30.1416666666667" customWidth="1"/>
+    <col min="13" max="13" width="21.425" customWidth="1"/>
+    <col min="18" max="18" width="16.1416666666667" customWidth="1"/>
+    <col min="19" max="19" width="14.8583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -686,595 +1316,595 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="84" customHeight="1">
+    <row r="4" ht="84" customHeight="1" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="2:17">
       <c r="B5" s="1">
         <v>260001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="2:17">
       <c r="B6" s="1">
         <v>260002</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="2:17">
       <c r="B7" s="1">
         <v>260003</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="2:17">
       <c r="B8" s="1">
         <v>260004</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="2:17">
       <c r="B9" s="1">
         <v>260005</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="K9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="2:17">
       <c r="B10" s="1">
         <v>260006</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" ht="30">
+    <row r="11" spans="2:17">
       <c r="B11" s="1">
         <v>260007</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="K11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="M11" s="2" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="2:17">
       <c r="B12" s="1">
         <v>260008</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="2:17">
       <c r="B13" s="1">
-        <v>260009</v>
+        <v>265000</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G13" s="2">
         <v>5000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="2:17">
       <c r="B14" s="1">
-        <v>260010</v>
+        <v>265001</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="E14" s="1">
         <v>9</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2">
         <v>5000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="2:17">
       <c r="B15" s="1">
-        <v>260011</v>
+        <v>265002</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="J15" s="2">
         <v>0.5</v>
       </c>
       <c r="K15" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1284,5 +1914,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/item_Weapon.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Weapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="8880"/>
+    <workbookView windowWidth="25590" windowHeight="11200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="71">
   <si>
     <t>##var</t>
   </si>
@@ -77,10 +77,10 @@
     <t>int</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>float</t>
   </si>
   <si>
     <t>##group</t>
@@ -124,12 +124,6 @@
     <t>0表示近战，1表示远程</t>
   </si>
   <si>
-    <t>匕首</t>
-  </si>
-  <si>
-    <t>像是某种宗教仪式的器具，用途不详，外观不祥。小矩形范围刺击。</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -154,12 +148,6 @@
     <t>P_Item_Weapon</t>
   </si>
   <si>
-    <t>刺剑</t>
-  </si>
-  <si>
-    <t>原来它是还没断的匕首。中矩形范围刺击。</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -175,24 +163,12 @@
     <t>Sprite_Item_Weapon_Sword</t>
   </si>
   <si>
-    <t>菜刀</t>
-  </si>
-  <si>
-    <t>因血液而生锈的斑驳，能嗅到曾刻于其上的惨叫。小扇形范围劈砍。</t>
-  </si>
-  <si>
     <t>Icon_Item_Weapon_KitchenKnife</t>
   </si>
   <si>
     <t>Sprite_Item_Weapon_KitchenKnife</t>
   </si>
   <si>
-    <t>唐刀</t>
-  </si>
-  <si>
-    <t>老旧的唐刀，端庄的外观勉强能在这鬼地方给人一丝心理上的慰藉。中扇形范围劈砍。</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -205,12 +181,6 @@
     <t>Sprite_Item_Weapon_TangDao</t>
   </si>
   <si>
-    <t>消防斧</t>
-  </si>
-  <si>
-    <t>不仅能救火，还能让怪物们明白你不仅是来灭火的。超大扇形范围劈砍。</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -226,24 +196,12 @@
     <t>Sprite_Item_Weapon_FireAxe</t>
   </si>
   <si>
-    <t>榔头</t>
-  </si>
-  <si>
-    <t>即是工具，也是武器，它是最容易使用的钝器代表。小圆形范围概率击晕，概率随角色力量值变化。</t>
-  </si>
-  <si>
     <t>Icon_Item_Weapon_HammerS</t>
   </si>
   <si>
     <t>Sprite_Item_Weapon_HammerS</t>
   </si>
   <si>
-    <t>大锤</t>
-  </si>
-  <si>
-    <t>它重、它响，它更容易击晕敌人，绝对能让人记住你来过。中圆形范围概率击晕，概率随角色力量值变化。</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -253,36 +211,18 @@
     <t>Sprite_Item_Weapon_HammerG</t>
   </si>
   <si>
-    <t>棒球棍</t>
-  </si>
-  <si>
-    <t>“你可能在球场上安全，但这里不行。”中扇形范围概率击退，概率随角色力量值变化。</t>
-  </si>
-  <si>
     <t>Icon_Item_Weapon_Bat</t>
   </si>
   <si>
     <t>Sprite_Item_Weapon_Bat</t>
   </si>
   <si>
-    <t>手枪</t>
-  </si>
-  <si>
-    <t>一点点火力，能让你轻松解决问题，或者至少威胁一下。</t>
-  </si>
-  <si>
     <t>Icon_Item_Weapon_Pistol</t>
   </si>
   <si>
     <t>Sprite_Item_Weapon_Pistol</t>
   </si>
   <si>
-    <t>霰弹枪</t>
-  </si>
-  <si>
-    <t>扇形设计，且距离越近伤害越高，在印象里是匪徒的武器。</t>
-  </si>
-  <si>
     <t>0.4</t>
   </si>
   <si>
@@ -290,12 +230,6 @@
   </si>
   <si>
     <t>Sprite_Item_Weapon_Shotgun</t>
-  </si>
-  <si>
-    <t>打火机</t>
-  </si>
-  <si>
-    <t>这是你与易燃物交流的唯一渠道，使用时还可以微微照亮四周。</t>
   </si>
   <si>
     <t>30</t>
@@ -1263,25 +1197,25 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="34.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6272727272727" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="104.566666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.425" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.425" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="104.563636363636" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.4272727272727" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4272727272727" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1454545454545" style="2" customWidth="1"/>
     <col min="8" max="9" width="9" style="2"/>
     <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="11" width="48.2833333333333" customWidth="1"/>
-    <col min="12" max="12" width="30.1416666666667" customWidth="1"/>
-    <col min="13" max="13" width="21.425" customWidth="1"/>
-    <col min="18" max="18" width="16.1416666666667" customWidth="1"/>
-    <col min="19" max="19" width="14.8583333333333" customWidth="1"/>
+    <col min="11" max="11" width="48.2818181818182" customWidth="1"/>
+    <col min="12" max="12" width="30.1454545454545" customWidth="1"/>
+    <col min="13" max="13" width="21.4272727272727" customWidth="1"/>
+    <col min="18" max="18" width="16.1454545454545" customWidth="1"/>
+    <col min="19" max="19" width="14.8545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1336,10 +1270,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -1357,16 +1291,16 @@
         <v>15</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>15</v>
@@ -1377,12 +1311,8 @@
         <v>18</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1453,38 +1383,38 @@
       <c r="B5" s="1">
         <v>260001</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="1">
+        <v>750001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>850001</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1495,38 +1425,38 @@
       <c r="B6" s="1">
         <v>260002</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1">
+        <v>750002</v>
+      </c>
+      <c r="D6" s="1">
+        <v>850002</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="K6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="M6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1537,38 +1467,38 @@
       <c r="B7" s="1">
         <v>260003</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>49</v>
+      <c r="C7" s="1">
+        <v>750003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>850003</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1579,38 +1509,38 @@
       <c r="B8" s="1">
         <v>260004</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>53</v>
+      <c r="C8" s="1">
+        <v>750004</v>
+      </c>
+      <c r="D8" s="1">
+        <v>850004</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1621,38 +1551,38 @@
       <c r="B9" s="1">
         <v>260005</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>59</v>
+      <c r="C9" s="1">
+        <v>750005</v>
+      </c>
+      <c r="D9" s="1">
+        <v>850005</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1663,38 +1593,38 @@
       <c r="B10" s="1">
         <v>260006</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>66</v>
+      <c r="C10" s="1">
+        <v>750006</v>
+      </c>
+      <c r="D10" s="1">
+        <v>850006</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="H10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1705,38 +1635,38 @@
       <c r="B11" s="1">
         <v>260007</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>70</v>
+      <c r="C11" s="1">
+        <v>750007</v>
+      </c>
+      <c r="D11" s="1">
+        <v>850007</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1747,38 +1677,38 @@
       <c r="B12" s="1">
         <v>260008</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>75</v>
+      <c r="C12" s="1">
+        <v>750008</v>
+      </c>
+      <c r="D12" s="1">
+        <v>850008</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K12" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1789,38 +1719,38 @@
       <c r="B13" s="1">
         <v>265000</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>79</v>
+      <c r="C13" s="1">
+        <v>750009</v>
+      </c>
+      <c r="D13" s="1">
+        <v>850009</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13" s="2">
         <v>5000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1831,38 +1761,38 @@
       <c r="B14" s="1">
         <v>265001</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>83</v>
+      <c r="C14" s="1">
+        <v>750010</v>
+      </c>
+      <c r="D14" s="1">
+        <v>850010</v>
       </c>
       <c r="E14" s="1">
         <v>9</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G14" s="2">
         <v>5000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1873,38 +1803,38 @@
       <c r="B15" s="1">
         <v>265002</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>88</v>
+      <c r="C15" s="1">
+        <v>750011</v>
+      </c>
+      <c r="D15" s="1">
+        <v>850011</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="J15" s="2">
         <v>0.5</v>
       </c>
       <c r="K15" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>

--- a/AAA-Luban-Excel/Datas/item_Weapon.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Weapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25590" windowHeight="11200"/>
+    <workbookView windowWidth="28185" windowHeight="6270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1196,26 +1196,26 @@
   <sheetPr/>
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="34.6272727272727" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="104.563636363636" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.4272727272727" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4272727272727" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1454545454545" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.425" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.425" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1416666666667" style="2" customWidth="1"/>
     <col min="8" max="9" width="9" style="2"/>
     <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="11" width="48.2818181818182" customWidth="1"/>
-    <col min="12" max="12" width="30.1454545454545" customWidth="1"/>
-    <col min="13" max="13" width="21.4272727272727" customWidth="1"/>
-    <col min="18" max="18" width="16.1454545454545" customWidth="1"/>
-    <col min="19" max="19" width="14.8545454545455" customWidth="1"/>
+    <col min="11" max="11" width="48.2833333333333" customWidth="1"/>
+    <col min="12" max="12" width="30.1416666666667" customWidth="1"/>
+    <col min="13" max="13" width="21.425" customWidth="1"/>
+    <col min="18" max="18" width="16.1416666666667" customWidth="1"/>
+    <col min="19" max="19" width="14.8583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">

--- a/AAA-Luban-Excel/Datas/item_Weapon.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Weapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28185" windowHeight="6270"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="71">
   <si>
     <t>##var</t>
   </si>
@@ -1196,8 +1196,8 @@
   <sheetPr/>
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1310,9 +1310,15 @@
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>19</v>
       </c>

--- a/AAA-Luban-Excel/Datas/item_Weapon.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Weapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="16455" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="82">
   <si>
     <t>##var</t>
   </si>
@@ -124,6 +124,9 @@
     <t>0表示近战，1表示远程</t>
   </si>
   <si>
+    <t>匕首</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -148,6 +151,9 @@
     <t>P_Item_Weapon</t>
   </si>
   <si>
+    <t>刺剑</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -163,12 +169,18 @@
     <t>Sprite_Item_Weapon_Sword</t>
   </si>
   <si>
+    <t>菜刀</t>
+  </si>
+  <si>
     <t>Icon_Item_Weapon_KitchenKnife</t>
   </si>
   <si>
     <t>Sprite_Item_Weapon_KitchenKnife</t>
   </si>
   <si>
+    <t>唐刀</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -181,6 +193,9 @@
     <t>Sprite_Item_Weapon_TangDao</t>
   </si>
   <si>
+    <t>消防斧</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -196,12 +211,18 @@
     <t>Sprite_Item_Weapon_FireAxe</t>
   </si>
   <si>
+    <t>榔头</t>
+  </si>
+  <si>
     <t>Icon_Item_Weapon_HammerS</t>
   </si>
   <si>
     <t>Sprite_Item_Weapon_HammerS</t>
   </si>
   <si>
+    <t>大锤</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -211,18 +232,27 @@
     <t>Sprite_Item_Weapon_HammerG</t>
   </si>
   <si>
+    <t>棒球棍</t>
+  </si>
+  <si>
     <t>Icon_Item_Weapon_Bat</t>
   </si>
   <si>
     <t>Sprite_Item_Weapon_Bat</t>
   </si>
   <si>
+    <t>手枪</t>
+  </si>
+  <si>
     <t>Icon_Item_Weapon_Pistol</t>
   </si>
   <si>
     <t>Sprite_Item_Weapon_Pistol</t>
   </si>
   <si>
+    <t>霰弹枪</t>
+  </si>
+  <si>
     <t>0.4</t>
   </si>
   <si>
@@ -230,6 +260,9 @@
   </si>
   <si>
     <t>Sprite_Item_Weapon_Shotgun</t>
+  </si>
+  <si>
+    <t>打火机</t>
   </si>
   <si>
     <t>30</t>
@@ -1194,10 +1227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1205,20 +1238,20 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="18.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.425" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.425" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1416666666667" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="11" width="48.2833333333333" customWidth="1"/>
-    <col min="12" max="12" width="30.1416666666667" customWidth="1"/>
-    <col min="13" max="13" width="21.425" customWidth="1"/>
-    <col min="18" max="18" width="16.1416666666667" customWidth="1"/>
-    <col min="19" max="19" width="14.8583333333333" customWidth="1"/>
+    <col min="4" max="5" width="18.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.425" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.425" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1416666666667" style="2" customWidth="1"/>
+    <col min="9" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="16" style="2" customWidth="1"/>
+    <col min="12" max="12" width="48.2833333333333" customWidth="1"/>
+    <col min="13" max="13" width="30.1416666666667" customWidth="1"/>
+    <col min="14" max="14" width="21.425" customWidth="1"/>
+    <col min="19" max="19" width="16.1416666666667" customWidth="1"/>
+    <col min="20" max="20" width="14.8583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1228,41 +1261,42 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1272,9 +1306,7 @@
       <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1291,10 +1323,10 @@
         <v>15</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>17</v>
@@ -1303,10 +1335,13 @@
         <v>17</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1316,9 +1351,7 @@
       <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1346,11 +1379,14 @@
       <c r="M3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="O3" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" ht="84" customHeight="1" spans="1:14">
+    <row r="4" ht="84" customHeight="1" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1360,492 +1396,526 @@
       <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:18">
       <c r="B5" s="1">
         <v>260001</v>
       </c>
       <c r="C5" s="1">
         <v>750001</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1">
         <v>850001</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" t="s">
         <v>37</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5">
         <v>0</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:18">
       <c r="B6" s="1">
         <v>260002</v>
       </c>
       <c r="C6" s="1">
         <v>750002</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1">
         <v>850002</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6">
+      <c r="O6">
         <v>0</v>
       </c>
-      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:18">
       <c r="B7" s="1">
         <v>260003</v>
       </c>
       <c r="C7" s="1">
         <v>750003</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1">
         <v>850003</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>45</v>
+      <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7">
+        <v>48</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7">
         <v>0</v>
       </c>
-      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:18">
       <c r="B8" s="1">
         <v>260004</v>
       </c>
       <c r="C8" s="1">
         <v>750004</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1">
         <v>850004</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" t="s">
+        <v>52</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8">
+        <v>53</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8">
         <v>0</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:18">
       <c r="B9" s="1">
         <v>260005</v>
       </c>
       <c r="C9" s="1">
         <v>750005</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1">
         <v>850005</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" t="s">
+        <v>58</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9">
+        <v>59</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9">
         <v>0</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:18">
       <c r="B10" s="1">
         <v>260006</v>
       </c>
       <c r="C10" s="1">
         <v>750006</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1">
         <v>850006</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10">
+      <c r="O10">
         <v>0</v>
       </c>
-      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:18">
       <c r="B11" s="1">
         <v>260007</v>
       </c>
       <c r="C11" s="1">
         <v>750007</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="1">
         <v>850007</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>59</v>
+      <c r="L11" t="s">
+        <v>65</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11">
+        <v>66</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11">
         <v>0</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:18">
       <c r="B12" s="1">
         <v>260008</v>
       </c>
       <c r="C12" s="1">
         <v>750008</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="1">
         <v>850008</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" t="s">
+        <v>68</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12">
+        <v>69</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12">
         <v>0</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:18">
       <c r="B13" s="1">
         <v>265000</v>
       </c>
       <c r="C13" s="1">
         <v>750009</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="1">
         <v>850009</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="2">
-        <v>5000</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" t="s">
-        <v>62</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="s">
+        <v>71</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13">
+        <v>72</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13">
         <v>1</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:18">
       <c r="B14" s="1">
         <v>265001</v>
       </c>
       <c r="C14" s="1">
         <v>750010</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="1">
         <v>850010</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>9</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="G14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="2">
         <v>5000</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N14">
+      <c r="O14">
         <v>1</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:18">
       <c r="B15" s="1">
         <v>265002</v>
       </c>
       <c r="C15" s="1">
         <v>750011</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1">
         <v>850011</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>67</v>
+      <c r="G15" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" s="2">
+        <v>79</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="2">
         <v>0.5</v>
       </c>
-      <c r="K15" t="s">
-        <v>69</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>70</v>
+      <c r="L15" t="s">
+        <v>80</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N15">
+        <v>81</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15">
         <v>1</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAA-Luban-Excel/Datas/item_Weapon.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Weapon.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0352590-DC71-4C9C-8DA6-FD8EC194BCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16455" windowHeight="12255"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="84">
   <si>
     <t>##var</t>
   </si>
@@ -275,373 +268,43 @@
   </si>
   <si>
     <t>Sprite_Item_Weapon_Lighter</t>
+  </si>
+  <si>
+    <t>AmmoId</t>
+  </si>
+  <si>
+    <t>是否消耗弹药以及弹药ID，-1表示不消耗弹药</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -649,251 +312,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -917,61 +338,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1221,37 +598,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="5" width="18.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.425" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.425" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1416666666667" style="2" customWidth="1"/>
+    <col min="4" max="5" width="18.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="2" customWidth="1"/>
     <col min="9" max="10" width="9" style="2"/>
     <col min="11" max="11" width="16" style="2" customWidth="1"/>
-    <col min="12" max="12" width="48.2833333333333" customWidth="1"/>
-    <col min="13" max="13" width="30.1416666666667" customWidth="1"/>
-    <col min="14" max="14" width="21.425" customWidth="1"/>
-    <col min="19" max="19" width="16.1416666666667" customWidth="1"/>
-    <col min="20" max="20" width="14.8583333333333" customWidth="1"/>
+    <col min="12" max="12" width="48.28515625" customWidth="1"/>
+    <col min="13" max="13" width="30.140625" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.140625" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1295,8 +674,11 @@
       <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1340,8 +722,11 @@
       <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1385,8 +770,11 @@
       <c r="O3" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" ht="84" customHeight="1" spans="1:15">
+      <c r="P3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="84" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1421,8 +809,11 @@
       <c r="O4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="2:18">
+      <c r="P4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="B5" s="1">
         <v>260001</v>
       </c>
@@ -1465,9 +856,12 @@
       <c r="O5">
         <v>0</v>
       </c>
+      <c r="P5">
+        <v>-1</v>
+      </c>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="1:18">
       <c r="B6" s="1">
         <v>260002</v>
       </c>
@@ -1510,9 +904,12 @@
       <c r="O6">
         <v>0</v>
       </c>
+      <c r="P6">
+        <v>-1</v>
+      </c>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="1:18">
       <c r="B7" s="1">
         <v>260003</v>
       </c>
@@ -1555,9 +952,12 @@
       <c r="O7">
         <v>0</v>
       </c>
+      <c r="P7">
+        <v>-1</v>
+      </c>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="1:18">
       <c r="B8" s="1">
         <v>260004</v>
       </c>
@@ -1600,9 +1000,12 @@
       <c r="O8">
         <v>0</v>
       </c>
+      <c r="P8">
+        <v>-1</v>
+      </c>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="1:18">
       <c r="B9" s="1">
         <v>260005</v>
       </c>
@@ -1645,9 +1048,12 @@
       <c r="O9">
         <v>0</v>
       </c>
+      <c r="P9">
+        <v>-1</v>
+      </c>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="1:18">
       <c r="B10" s="1">
         <v>260006</v>
       </c>
@@ -1690,9 +1096,12 @@
       <c r="O10">
         <v>0</v>
       </c>
+      <c r="P10">
+        <v>-1</v>
+      </c>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="1:18">
       <c r="B11" s="1">
         <v>260007</v>
       </c>
@@ -1735,9 +1144,12 @@
       <c r="O11">
         <v>0</v>
       </c>
+      <c r="P11">
+        <v>-1</v>
+      </c>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="1:18">
       <c r="B12" s="1">
         <v>260008</v>
       </c>
@@ -1780,9 +1192,12 @@
       <c r="O12">
         <v>0</v>
       </c>
+      <c r="P12">
+        <v>-1</v>
+      </c>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="1:18">
       <c r="B13" s="1">
         <v>265000</v>
       </c>
@@ -1825,9 +1240,12 @@
       <c r="O13">
         <v>1</v>
       </c>
+      <c r="P13">
+        <v>240004</v>
+      </c>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="1:18">
       <c r="B14" s="1">
         <v>265001</v>
       </c>
@@ -1870,9 +1288,12 @@
       <c r="O14">
         <v>1</v>
       </c>
+      <c r="P14">
+        <v>240005</v>
+      </c>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="1:18">
       <c r="B15" s="1">
         <v>265002</v>
       </c>
@@ -1914,12 +1335,14 @@
       </c>
       <c r="O15">
         <v>1</v>
+      </c>
+      <c r="P15">
+        <v>-1</v>
       </c>
       <c r="R15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/item_Weapon.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Weapon.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0352590-DC71-4C9C-8DA6-FD8EC194BCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -64,6 +71,9 @@
     <t>WeaponType</t>
   </si>
   <si>
+    <t>AmmoId</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -117,6 +127,9 @@
     <t>0表示近战，1表示远程</t>
   </si>
   <si>
+    <t>是否消耗弹药以及弹药ID，-1表示不消耗弹药</t>
+  </si>
+  <si>
     <t>匕首</t>
   </si>
   <si>
@@ -268,43 +281,379 @@
   </si>
   <si>
     <t>Sprite_Item_Weapon_Lighter</t>
-  </si>
-  <si>
-    <t>AmmoId</t>
-  </si>
-  <si>
-    <t>是否消耗弹药以及弹药ID，-1表示不消耗弹药</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -312,14 +661,259 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -334,21 +928,74 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -598,308 +1245,309 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="5" width="18.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="16" style="2" customWidth="1"/>
-    <col min="12" max="12" width="48.28515625" customWidth="1"/>
-    <col min="13" max="13" width="30.140625" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" customWidth="1"/>
-    <col min="15" max="15" width="25.140625" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="26" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="5" width="18.425" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.425" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.425" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.1416666666667" style="3" customWidth="1"/>
+    <col min="9" max="10" width="9" style="3"/>
+    <col min="11" max="11" width="16" style="3" customWidth="1"/>
+    <col min="12" max="12" width="48.2833333333333" customWidth="1"/>
+    <col min="13" max="13" width="30.1416666666667" customWidth="1"/>
+    <col min="14" max="14" width="21.425" customWidth="1"/>
+    <col min="15" max="15" width="25.1416666666667" customWidth="1"/>
+    <col min="16" max="16" width="17.7083333333333" customWidth="1"/>
+    <col min="19" max="19" width="16.1416666666667" customWidth="1"/>
+    <col min="20" max="20" width="14.8583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>82</v>
+      <c r="P1" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>15</v>
+      <c r="L2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>19</v>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="84" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" ht="84" customHeight="1" spans="1:16">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="K4" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="B5" s="1">
+    <row r="5" s="1" customFormat="1" spans="1:18">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6">
         <v>260001</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <v>750001</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="6">
         <v>850001</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="F5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="G5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="H5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L5" t="s">
+      <c r="I5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="K5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O5">
+      <c r="M5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="1">
         <v>0</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>-1</v>
       </c>
-      <c r="R5" s="2"/>
+      <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="1:18">
-      <c r="B6" s="1">
+    <row r="6" spans="2:18">
+      <c r="B6" s="2">
         <v>260002</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>750002</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2">
         <v>850002</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="G6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -907,47 +1555,47 @@
       <c r="P6">
         <v>-1</v>
       </c>
-      <c r="R6" s="2"/>
+      <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18">
-      <c r="B7" s="1">
+    <row r="7" spans="2:18">
+      <c r="B7" s="2">
         <v>260003</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>750003</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="2">
         <v>850003</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="G7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="I7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="L7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -955,47 +1603,47 @@
       <c r="P7">
         <v>-1</v>
       </c>
-      <c r="R7" s="2"/>
+      <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18">
-      <c r="B8" s="1">
+    <row r="8" spans="2:18">
+      <c r="B8" s="2">
         <v>260004</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>750004</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2">
         <v>850004</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>43</v>
+      <c r="G8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1003,47 +1651,47 @@
       <c r="P8">
         <v>-1</v>
       </c>
-      <c r="R8" s="2"/>
+      <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18">
-      <c r="B9" s="1">
+    <row r="9" spans="2:18">
+      <c r="B9" s="2">
         <v>260005</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>750005</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="2">
         <v>850005</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="G9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="J9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="L9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>39</v>
+        <v>60</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1051,47 +1699,47 @@
       <c r="P9">
         <v>-1</v>
       </c>
-      <c r="R9" s="2"/>
+      <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18">
-      <c r="B10" s="1">
+    <row r="10" spans="2:18">
+      <c r="B10" s="2">
         <v>260006</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>750006</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="2">
         <v>850006</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="G10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1099,47 +1747,47 @@
       <c r="P10">
         <v>-1</v>
       </c>
-      <c r="R10" s="2"/>
+      <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18">
-      <c r="B11" s="1">
+    <row r="11" spans="2:18">
+      <c r="B11" s="2">
         <v>260007</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>750007</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="2">
         <v>850007</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="G11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="J11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="L11" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>39</v>
+        <v>67</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1147,47 +1795,47 @@
       <c r="P11">
         <v>-1</v>
       </c>
-      <c r="R11" s="2"/>
+      <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18">
-      <c r="B12" s="1">
+    <row r="12" spans="2:18">
+      <c r="B12" s="2">
         <v>260008</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>750008</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
         <v>850008</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>43</v>
+      <c r="G12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>39</v>
+        <v>70</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1195,95 +1843,96 @@
       <c r="P12">
         <v>-1</v>
       </c>
-      <c r="R12" s="2"/>
+      <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18">
-      <c r="B13" s="1">
+    <row r="13" s="1" customFormat="1" spans="1:18">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6">
         <v>265000</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6">
         <v>750009</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="6">
         <v>850009</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="6">
         <v>1</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="G13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="8">
         <v>5000</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" t="s">
-        <v>71</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O13">
+      <c r="I13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="1">
         <v>1</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="1">
         <v>240004</v>
       </c>
-      <c r="R13" s="2"/>
+      <c r="R13" s="8"/>
     </row>
-    <row r="14" spans="1:18">
-      <c r="B14" s="1">
+    <row r="14" spans="2:18">
+      <c r="B14" s="2">
         <v>265001</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>750010</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="2">
         <v>850010</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>9</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="3">
         <v>5000</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1291,47 +1940,47 @@
       <c r="P14">
         <v>240005</v>
       </c>
-      <c r="R14" s="2"/>
+      <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18">
-      <c r="B15" s="1">
+    <row r="15" spans="2:18">
+      <c r="B15" s="2">
         <v>265002</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>750011</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="2">
         <v>850011</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="2">
+      <c r="F15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="3">
         <v>0.5</v>
       </c>
       <c r="L15" t="s">
-        <v>80</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>39</v>
+        <v>82</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -1339,10 +1988,11 @@
       <c r="P15">
         <v>-1</v>
       </c>
-      <c r="R15" s="2"/>
+      <c r="R15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/item_Weapon.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Weapon.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77FACD1-EFA6-461E-99CB-C042806E9978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView xWindow="2745" yWindow="495" windowWidth="22365" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="94">
   <si>
     <t>##var</t>
   </si>
@@ -154,9 +147,6 @@
     <t>Sprite_Item_Weapon_Dagger</t>
   </si>
   <si>
-    <t>P_Item_Weapon</t>
-  </si>
-  <si>
     <t>刺剑</t>
   </si>
   <si>
@@ -281,179 +271,62 @@
   </si>
   <si>
     <t>Sprite_Item_Weapon_Lighter</t>
+  </si>
+  <si>
+    <t>P_Item_Weapon_Dagger</t>
+  </si>
+  <si>
+    <t>P_Item_Weapon_Sword</t>
+  </si>
+  <si>
+    <t>P_Item_Weapon_KitchenKnife</t>
+  </si>
+  <si>
+    <t>P_Item_Weapon_TangDao</t>
+  </si>
+  <si>
+    <t>P_Item_Weapon_FireAxe</t>
+  </si>
+  <si>
+    <t>P_Item_Weapon_HammerS</t>
+  </si>
+  <si>
+    <t>P_Item_Weapon_HammerG</t>
+  </si>
+  <si>
+    <t>P_Item_Weapon_Bat</t>
+  </si>
+  <si>
+    <t>P_Item_Weapon_Pistol</t>
+  </si>
+  <si>
+    <t>P_Item_Weapon_Shotgun</t>
+  </si>
+  <si>
+    <t>P_Item_Weapon_Lighter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,194 +339,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -661,251 +348,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -941,61 +386,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1245,39 +646,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="26" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="5" width="18.425" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.425" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.425" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.1416666666667" style="3" customWidth="1"/>
+    <col min="4" max="5" width="18.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="3" customWidth="1"/>
     <col min="9" max="10" width="9" style="3"/>
     <col min="11" max="11" width="16" style="3" customWidth="1"/>
-    <col min="12" max="12" width="48.2833333333333" customWidth="1"/>
-    <col min="13" max="13" width="30.1416666666667" customWidth="1"/>
-    <col min="14" max="14" width="21.425" customWidth="1"/>
-    <col min="15" max="15" width="25.1416666666667" customWidth="1"/>
-    <col min="16" max="16" width="17.7083333333333" customWidth="1"/>
-    <col min="19" max="19" width="16.1416666666667" customWidth="1"/>
-    <col min="20" max="20" width="14.8583333333333" customWidth="1"/>
+    <col min="12" max="12" width="42.85546875" customWidth="1"/>
+    <col min="13" max="13" width="39.42578125" customWidth="1"/>
+    <col min="14" max="14" width="35.28515625" customWidth="1"/>
+    <col min="15" max="15" width="25.140625" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" customWidth="1"/>
+    <col min="26" max="26" width="39.85546875" customWidth="1"/>
+    <col min="27" max="27" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:29">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1325,7 +728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:29">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1373,7 +776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:29">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1421,7 +824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="84" customHeight="1" spans="1:16">
+    <row r="4" spans="1:29" ht="84" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1460,7 +863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:18">
+    <row r="5" spans="1:29" s="1" customFormat="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6">
         <v>260001</v>
@@ -1499,7 +902,7 @@
         <v>40</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -1508,8 +911,10 @@
         <v>-1</v>
       </c>
       <c r="R5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="AA5" s="8"/>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="1:29">
       <c r="B6" s="2">
         <v>260002</v>
       </c>
@@ -1517,7 +922,7 @@
         <v>750002</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2">
         <v>850002</v>
@@ -1532,22 +937,22 @@
         <v>36</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" t="s">
         <v>45</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="N6" s="3" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1556,8 +961,11 @@
         <v>-1</v>
       </c>
       <c r="R6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="1:29">
       <c r="B7" s="2">
         <v>260003</v>
       </c>
@@ -1565,7 +973,7 @@
         <v>750003</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2">
         <v>850003</v>
@@ -1589,13 +997,13 @@
         <v>38</v>
       </c>
       <c r="L7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="N7" s="3" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1604,8 +1012,11 @@
         <v>-1</v>
       </c>
       <c r="R7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="1:29">
       <c r="B8" s="2">
         <v>260004</v>
       </c>
@@ -1613,7 +1024,7 @@
         <v>750004</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2">
         <v>850004</v>
@@ -1628,22 +1039,22 @@
         <v>36</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="M8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="N8" s="3" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1652,8 +1063,11 @@
         <v>-1</v>
       </c>
       <c r="R8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="1:29">
       <c r="B9" s="2">
         <v>260005</v>
       </c>
@@ -1661,7 +1075,7 @@
         <v>750005</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2">
         <v>850005</v>
@@ -1676,22 +1090,22 @@
         <v>36</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" t="s">
         <v>59</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="N9" s="3" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1700,8 +1114,11 @@
         <v>-1</v>
       </c>
       <c r="R9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="1:29">
       <c r="B10" s="2">
         <v>260006</v>
       </c>
@@ -1709,7 +1126,7 @@
         <v>750006</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2">
         <v>850006</v>
@@ -1724,22 +1141,22 @@
         <v>36</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="N10" s="3" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1748,8 +1165,11 @@
         <v>-1</v>
       </c>
       <c r="R10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="1:29">
       <c r="B11" s="2">
         <v>260007</v>
       </c>
@@ -1757,7 +1177,7 @@
         <v>750007</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2">
         <v>850007</v>
@@ -1772,22 +1192,22 @@
         <v>36</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="M11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="N11" s="3" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1796,8 +1216,11 @@
         <v>-1</v>
       </c>
       <c r="R11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="1:29">
       <c r="B12" s="2">
         <v>260008</v>
       </c>
@@ -1805,7 +1228,7 @@
         <v>750008</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2">
         <v>850008</v>
@@ -1820,22 +1243,22 @@
         <v>36</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="L12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="N12" s="3" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1844,8 +1267,11 @@
         <v>-1</v>
       </c>
       <c r="R12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AC12" s="1"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:18">
+    <row r="13" spans="1:29" s="1" customFormat="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>265000</v>
@@ -1854,7 +1280,7 @@
         <v>750009</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="6">
         <v>850009</v>
@@ -1872,19 +1298,19 @@
         <v>34</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>38</v>
       </c>
       <c r="L13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="N13" s="8" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
@@ -1893,8 +1319,10 @@
         <v>240004</v>
       </c>
       <c r="R13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="AA13" s="8"/>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="1:29">
       <c r="B14" s="2">
         <v>265001</v>
       </c>
@@ -1902,7 +1330,7 @@
         <v>750010</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2">
         <v>850010</v>
@@ -1917,22 +1345,22 @@
         <v>5000</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" t="s">
         <v>76</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="N14" s="3" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1941,8 +1369,11 @@
         <v>240005</v>
       </c>
       <c r="R14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="1:29">
       <c r="B15" s="2">
         <v>265002</v>
       </c>
@@ -1950,7 +1381,7 @@
         <v>750011</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2">
         <v>850011</v>
@@ -1962,25 +1393,25 @@
         <v>35</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="J15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K15" s="3">
         <v>0.5</v>
       </c>
       <c r="L15" t="s">
+        <v>81</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="N15" s="3" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -1989,10 +1420,12 @@
         <v>-1</v>
       </c>
       <c r="R15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AC15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>